--- a/Jobs.xlsx
+++ b/Jobs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="546">
   <si>
     <t>Title</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Contract/Temp</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39587766/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39587766/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Junior - Mid level Data Scientist | Contract | Iconic organisation</t>
@@ -64,7 +64,10 @@
     <t>2019-08-05</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39633381/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39633381/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Deloitte Access Economics - Junior Data Scientist</t>
@@ -82,7 +85,7 @@
     <t>3.4</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39637531/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39637531/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Data Scientist</t>
@@ -91,7 +94,7 @@
     <t>Chandler Macleod Group</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39641804/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39641804/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Junior - Mid level Data Scientist | Permanent or Contract | Iconic organisation</t>
@@ -100,13 +103,13 @@
     <t>2019-07-29</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39579171/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39579171/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>2019-08-01</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39610701/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39610701/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Boral Ltd</t>
@@ -115,7 +118,7 @@
     <t>3.6</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39627934/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39627934/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Data Scientist - Machine Learning</t>
@@ -127,7 +130,7 @@
     <t>2019-07-30</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39582387/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39582387/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Balance Recruitment</t>
@@ -136,7 +139,7 @@
     <t>2019-08-04</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39623591/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39623591/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>The University of Sydney</t>
@@ -148,10 +151,10 @@
     <t>3.9</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39555876/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39555877/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39555876/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39555877/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Postdoctoral Fellow - Data Scientist</t>
@@ -163,10 +166,10 @@
     <t>3.8</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39584072/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39584071/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39584072/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39584071/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Paxus</t>
@@ -175,13 +178,13 @@
     <t>2019-07-31</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39597982/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39597982/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Hays Information Technology</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39596040/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39596040/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Data Analyst / Scientist</t>
@@ -190,7 +193,7 @@
     <t>Lookahead Search</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39587101/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39587101/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Data Scientist - Greenfield</t>
@@ -199,7 +202,7 @@
     <t>Alloc8</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39595029/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39595029/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Junior Data Scientist</t>
@@ -211,19 +214,19 @@
     <t>2019-07-26</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39561937/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39561937/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Sirius Technology Sydney part of Sirius People Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39588910/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39588910/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>FIRESOFT Consulting</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39581453/apply?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39581453/apply?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>Lead Data Scientist</t>
@@ -235,7 +238,7 @@
     <t>3.1</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39639171/apply/linkout?searchrequesttoken=d001fc18-f7e8-47ad-b363-99e45a9147a3</t>
+    <t>https://www.seek.com.au//job/39639171/apply/linkout?searchrequesttoken=5279f770-8273-49cf-bc12-18be722fc126</t>
   </si>
   <si>
     <t>IAG</t>
@@ -247,7 +250,7 @@
     <t>3.5</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39540960/apply/linkout?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39540960/apply/linkout?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Machine Learning &amp; Data Scientist</t>
@@ -256,13 +259,13 @@
     <t>Techspear</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39552271/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39552271/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>2019-07-17</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39499015/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39499015/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Principal Data Scientist- Financial Markets Focused</t>
@@ -271,7 +274,7 @@
     <t>Identify Talent</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39552760/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39552760/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Senior Data Scientist</t>
@@ -280,7 +283,7 @@
     <t>T+O+M Executive</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39554113/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39554113/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Senior Data Scientist | Advance Analytics</t>
@@ -292,7 +295,7 @@
     <t>Ryde &amp; Macquarie Park</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39594690/apply/linkout?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39594690/apply/linkout?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Data Scientist / ML Engineer</t>
@@ -304,7 +307,7 @@
     <t>2019-07-22</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39522619/apply/linkout?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39522619/apply/linkout?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>News Corp Australia</t>
@@ -313,7 +316,7 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39625838/apply/linkout?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39625838/apply/linkout?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Data Science Consultant</t>
@@ -325,22 +328,22 @@
     <t>North Shore &amp; Northern Beaches</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39643950/apply/linkout?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39643950/apply/linkout?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Amplify Partners Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39609811/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39609811/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Data Scientist | long term contract | Iconic organisation</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39547865/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39528038/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39547865/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39528038/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Chief Data Scientist</t>
@@ -355,13 +358,13 @@
     <t>2.9</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39615749/apply/linkout?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39615749/apply/linkout?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>2019-07-19</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39514228/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39514228/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Junior/Graduate Data Scientist - If Heineken did job adverts.....(look it up)</t>
@@ -373,19 +376,19 @@
     <t>2019-07-12</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39459117/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39459117/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>FinXL IT Professional Services</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39516156/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39516156/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>2019-07-18</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39506145/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39506145/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Data Scientist - 2.5 year Fixed Term</t>
@@ -397,7 +400,7 @@
     <t>2019-07-15</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39470051/apply/linkout?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39470051/apply/linkout?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>BT Australasia</t>
@@ -406,7 +409,7 @@
     <t>3.3</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39476345/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39476345/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Data Scientist | Healthcare A.I | PhD Grads</t>
@@ -418,13 +421,13 @@
     <t>2019-07-10</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39438979/apply?searchrequesttoken=42da3782-64b6-4c2d-8993-80fa4cfee729</t>
+    <t>https://www.seek.com.au//job/39438979/apply?searchrequesttoken=74c1ae27-bed6-424e-b31c-e41cc4b24809</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39582950/apply/linkout?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39582950/apply/linkout?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Machine Learning, Data Science, Dev Ops</t>
@@ -433,7 +436,7 @@
     <t>Advice RegTech</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39618226/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39618226/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Elula</t>
@@ -442,19 +445,19 @@
     <t>2019-07-11</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39454967/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39454967/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Robert Walters</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39527902/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39527902/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Foxtel Management Pty Limited</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39504971/apply/linkout?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39504971/apply/linkout?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>PhD educated Data Scientist</t>
@@ -463,19 +466,19 @@
     <t>GQR Global Markets</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39454733/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39454733/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Finite Banking &amp; Finance</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39546289/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39546289/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Optus</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39530400/apply/linkout?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39530400/apply/linkout?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Hydrogen Group Pty Ltd</t>
@@ -484,10 +487,10 @@
     <t>2019-07-23</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39534780/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39505011/apply/linkout?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39534780/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39505011/apply/linkout?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Lead Data Scientist - Software Company</t>
@@ -496,7 +499,7 @@
     <t>Talent – Winner ‘Seek Large Recruitment Agency of the Year’ 3 consecutive years!</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39510763/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39510763/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Senior Data Scientist - FinTech</t>
@@ -508,13 +511,13 @@
     <t>2019-07-16</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39486348/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39486348/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Progressive</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39443952/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39443952/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Mane Consulting</t>
@@ -523,13 +526,13 @@
     <t>2019-07-09</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39435417/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39435417/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Data Scientist x 2  (Spark / Hive exp Essential)  - Brisbane - IT Consulting</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39462317/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39462317/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>The NSW Institute of Sport</t>
@@ -538,19 +541,19 @@
     <t>Parramatta &amp; Western Suburbs</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39435502/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39435502/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Bupa</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39457738/apply/linkout?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39457738/apply/linkout?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Marketing Analytics Consultant</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39479722/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
+    <t>https://www.seek.com.au//job/39479722/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
   </si>
   <si>
     <t>Data Science / Analytics Specialist (Ref: 4553)</t>
@@ -559,13 +562,13 @@
     <t>Enterprise IT Resources Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39532015/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39455260/apply?searchrequesttoken=fbecd1a0-dfd9-4583-8dd0-8d3f9998afa9</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39464148/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39532015/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39455260/apply?searchrequesttoken=443cb2bb-3684-4ded-8dbe-c9032f525d79</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39464148/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Data Assistant</t>
@@ -574,22 +577,22 @@
     <t>Reserve Bank of Australia</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39599019/apply/linkout?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39599019/apply/linkout?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Talent Insights Group Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39458124/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39458124/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Toyota Financial Services</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39464141/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39530953/apply/linkout?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39464141/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39530953/apply/linkout?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Big Data Engineer</t>
@@ -598,7 +601,7 @@
     <t>Precision Sourcing</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39626132/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39626132/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Machine Learning / Data Engineer</t>
@@ -607,19 +610,19 @@
     <t>Intellify</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39587283/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39587283/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Machine Learning &amp; Data Engineer for Backend Deployment</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39541473/apply/linkout?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39541473/apply/linkout?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Director Analytics - IOT</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39572624/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39572624/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Graduate AI Engineer - Data Analyst</t>
@@ -628,40 +631,40 @@
     <t>RASSURE</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39528593/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39528593/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Data Engineer - Python/SQL</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39638874/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39638874/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Lecturer - Data Science</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39511775/apply/linkout?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39511774/apply/linkout?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39511775/apply/linkout?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39511774/apply/linkout?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Senior Consultant - Data Science</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39436075/apply/linkout?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39436115/apply/linkout?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39436075/apply/linkout?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39436115/apply/linkout?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Senior Lecturer</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39511629/apply/linkout?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39511628/apply/linkout?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39511629/apply/linkout?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39511628/apply/linkout?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Quantitative Data Engineer Lead</t>
@@ -670,7 +673,7 @@
     <t>2019-07-28</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39571772/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39571772/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Data Engineer</t>
@@ -679,13 +682,13 @@
     <t>2XM Technology Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39577943/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39577943/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Senior Customer Insights Analyst - 12 Month Contract</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39602714/apply?searchrequesttoken=b19645c4-4e10-43cc-8bad-69fbb439e676</t>
+    <t>https://www.seek.com.au//job/39602714/apply?searchrequesttoken=8528be52-b2eb-458e-af98-b744ab575bbb</t>
   </si>
   <si>
     <t>Python Data Engineer - 6 month contract</t>
@@ -700,37 +703,37 @@
     <t>4.3</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39243631/apply/linkout?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39541472/apply/linkout?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39243631/apply/linkout?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39541472/apply/linkout?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Staff Engineer - Data Engineering</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39581933/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39638588/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39581933/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39638588/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Data Engineer Azure</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39574273/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39574273/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Principal Consultant</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39530202/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39530202/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Shelde</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39600981/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39600981/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Insights Analyst</t>
@@ -739,25 +742,25 @@
     <t>Sterning Group</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39615138/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39615138/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Big data consultant</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39556925/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39556925/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>REST Industry Super</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39555312/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39555312/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Senior Spatial Analyst / Consultant - Sydney / Newcastle</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39577879/apply/linkout?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39577879/apply/linkout?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Quantitative Consultant - Advanced Analytics</t>
@@ -766,7 +769,7 @@
     <t>Resources Group</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39574832/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39574832/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Senior Technical Analyst - SQL/R/Python - FMCG</t>
@@ -775,7 +778,7 @@
     <t>Quantium</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39626411/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39626411/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Data Engineer (AI), North Sydney Location, $110 - $130K base</t>
@@ -784,7 +787,7 @@
     <t>Needus</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39510147/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39510147/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Data Strategy Lead</t>
@@ -793,13 +796,13 @@
     <t>Nigel Frank International PTY LTD</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39548131/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39581505/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39604154/apply/linkout?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39548131/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39581505/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39604154/apply/linkout?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Information Management Data Architect</t>
@@ -808,22 +811,22 @@
     <t>Morgan McKinley</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39428959/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39573049/apply?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39428959/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39573049/apply?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Senior Data Engineer</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39441508/apply/linkout?searchrequesttoken=18d1a149-48e3-4bea-a3cc-f31d1442d773</t>
+    <t>https://www.seek.com.au//job/39441508/apply/linkout?searchrequesttoken=1bfb44a0-301a-4908-a8ce-04c162d51a81</t>
   </si>
   <si>
     <t>Postdoctoral Fellow - Data Analytics and Visualisation</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39584070/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39584070/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Machine Learning Engineer</t>
@@ -832,22 +835,22 @@
     <t>QBE</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39454088/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39566831/apply?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39441509/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39454088/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39566831/apply?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39441509/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Commonwealth Bank - Wealth Management</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39532703/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39584069/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39532703/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39584069/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Statistical Analyst</t>
@@ -856,13 +859,13 @@
     <t>Equifax Australia</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39583530/apply?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39583530/apply?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>The Onset</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39516303/apply?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39516303/apply?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Data Architect</t>
@@ -871,22 +874,22 @@
     <t>North West &amp; Hills District</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39547710/apply?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39547710/apply?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Continuum Recruitment</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39487105/apply?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39546106/apply?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39487105/apply?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39546106/apply?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Director</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39542677/apply?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39542677/apply?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Data Visualisation Specialist</t>
@@ -895,10 +898,10 @@
     <t>CHARTERED ACCOUNTANTS  AUSTRALIA AND NEW ZEALAND</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39531916/apply?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39441510/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39531916/apply?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39441510/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>IBM AI Sales Specialist</t>
@@ -907,19 +910,19 @@
     <t>IBM</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39538944/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39538944/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>IQVIA</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39493120/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39493120/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Data Office / Steward</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39533650/apply?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39533650/apply?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Graduate, Data Science</t>
@@ -928,49 +931,49 @@
     <t>CIMIC Graduates – CPB Contractors</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39458201/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39458201/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Hudson</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39432348/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
+    <t>https://www.seek.com.au//job/39432348/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
   </si>
   <si>
     <t>Data Science Manager</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39436102/apply/linkout?searchrequesttoken=ffb902e8-ab88-42b9-a07e-324dd08dd91c</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39480493/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39436102/apply/linkout?searchrequesttoken=a9b7e48b-0cea-4e9a-8d27-f88dfa796df5</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39480493/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Senior Actuary - Data</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39515831/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39515831/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Big Data Engineer - Azure</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39482118/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39482118/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Servian Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39443414/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39443414/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Data Strategist</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39475153/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39447575/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39475153/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39447575/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Data Developer / Engineer</t>
@@ -982,13 +985,13 @@
     <t>2.5</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39459728/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39459728/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Deputy.com</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39448918/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39448918/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Suncorp 2020 Technology Vacation Program</t>
@@ -1000,25 +1003,25 @@
     <t>Casual/Vacation</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39653781/apply/linkout?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39653782/apply/linkout?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39653783/apply/linkout?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39653781/apply/linkout?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39653782/apply/linkout?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39653783/apply/linkout?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Suncorp 2020 Technology Graduate Program</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39653701/apply/linkout?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39653703/apply/linkout?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39653702/apply/linkout?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39653701/apply/linkout?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39653703/apply/linkout?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39653702/apply/linkout?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>.Net Full Stack Developer</t>
@@ -1027,7 +1030,7 @@
     <t>PetSure (Australia) Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39579517/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39579517/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Dentsu Aegis Network</t>
@@ -1036,7 +1039,7 @@
     <t>2.7</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39646460/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39646460/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Senior Quantitative Analyst</t>
@@ -1048,13 +1051,13 @@
     <t>3.7</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39578325/apply/linkout?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39578325/apply/linkout?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Python Consultant</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39610099/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39610099/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>IT / Tech Recruitment Consultants, Resourcers &amp; Candidate Managers Wanted!</t>
@@ -1063,7 +1066,7 @@
     <t>TheDriveGroup</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39589319/apply?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
+    <t>https://www.seek.com.au//job/39589319/apply?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
   </si>
   <si>
     <t>Visualisation Developer - UTS Data Arena</t>
@@ -1072,61 +1075,61 @@
     <t>University of Technology Sydney</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39637261/apply/linkout?searchrequesttoken=55971167-7f97-4371-b298-1e7fa1b3ef1f</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39612515/apply/linkout?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39637261/apply/linkout?searchrequesttoken=55a0bde2-80fb-4c21-b737-e89b5342604b</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39612515/apply/linkout?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>ETL Developer</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39626041/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39626041/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Preacta Recruitment</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39601905/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39524261/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39601905/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39524261/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Data Analyst</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39598397/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39598407/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39598397/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39598407/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Senior Front End Developer</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39619759/apply/linkout?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39615356/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39619759/apply/linkout?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39615356/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Full Stack Engineer</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39526076/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39526076/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Postdoctoral Fellow - Urban Modelling</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39584273/apply/linkout?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39584274/apply/linkout?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39587766/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39584273/apply/linkout?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39584274/apply/linkout?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39587766/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Front of House Receptionist</t>
@@ -1135,13 +1138,13 @@
     <t>WPP AUNZ Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39586167/apply/linkout?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39586167/apply/linkout?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Digital Producer - Client Side</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39609813/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39609813/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>REACT Developer - Technology SaaS Company</t>
@@ -1150,7 +1153,7 @@
     <t>M&amp;T Resources</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39578959/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39578959/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Field Applications Engineer - Xilinx</t>
@@ -1159,37 +1162,37 @@
     <t>Xpand Group Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39502805/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39502805/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>PRA</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39449014/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39449014/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Office Manager</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39586364/apply/linkout?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39586364/apply/linkout?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Full Stack Developer (React)</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39498779/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39498779/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Machine Learning Engineer (AI), North Sydney Location, $100 - $130K base</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39510143/apply?searchrequesttoken=dd28a9a6-3b38-4e85-b438-b49e0cfe1863</t>
+    <t>https://www.seek.com.au//job/39510143/apply?searchrequesttoken=e17eb40d-75fa-4e43-8ca6-2f3643cb53e6</t>
   </si>
   <si>
     <t>Aurec</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39471227/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39471227/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Consumer Lending Product Manager, Conversion</t>
@@ -1198,13 +1201,13 @@
     <t>ING</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39552902/apply/linkout?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39552902/apply/linkout?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>TABCORP</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39550977/apply/linkout?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39550977/apply/linkout?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Adobe Technical Campaign Analyst</t>
@@ -1213,10 +1216,10 @@
     <t>EY</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39561552/apply/linkout?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39561551/apply/linkout?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39561552/apply/linkout?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39561551/apply/linkout?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Nutrition Scientist</t>
@@ -1225,19 +1228,19 @@
     <t>Nutrition Research Australia</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39638109/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39638109/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>In-house Marketing Manager | Part Time</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39602195/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39602195/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Python Developer</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39473928/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39473928/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Software Engineer - AWS</t>
@@ -1246,7 +1249,7 @@
     <t>Numinous</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39524093/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39524093/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Staff Scientist- Proteomics</t>
@@ -1255,7 +1258,7 @@
     <t>Children's Medical Research Institute</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39559679/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39559679/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Software Analyst</t>
@@ -1264,7 +1267,7 @@
     <t>Universities Admissions Centre (NSW &amp; ACT) Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39513806/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39513806/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Customer Experience CX Data Lead - 12M Contract</t>
@@ -1273,7 +1276,7 @@
     <t>Northbridge Recruitment</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39521735/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39521735/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Pre-Sales Engineer, Biometrics &amp; AI</t>
@@ -1282,10 +1285,10 @@
     <t>MasterCard</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39508920/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39442292/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39508920/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39442292/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>CX Data Lead</t>
@@ -1294,28 +1297,28 @@
     <t>Finite IT Recruitment Solutions</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39474018/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39474018/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Regional Sales Development Executive</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39544707/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39544707/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Charterhouse</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39482415/apply?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39482415/apply?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Senior Machine Learning Engineer</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39441611/apply/linkout?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39441612/apply/linkout?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
+    <t>https://www.seek.com.au//job/39441611/apply/linkout?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39441612/apply/linkout?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
   </si>
   <si>
     <t>Digital Design Consultant</t>
@@ -1324,10 +1327,10 @@
     <t>Michael Page Digital</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39442101/apply/linkout?searchrequesttoken=bb8167b8-86f1-4da2-ae9d-347ec260a617</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39470243/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39442101/apply/linkout?searchrequesttoken=fc3680e7-1bd6-4910-b892-5b5dce859a33</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39470243/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Medical Laboratory Scientist - Immunology</t>
@@ -1339,7 +1342,7 @@
     <t>South West &amp; M5 Corridor</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39635311/apply/linkout?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39635311/apply/linkout?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>UX/UI Designer</t>
@@ -1348,13 +1351,13 @@
     <t>Arup</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39453567/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39453567/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Project Manager - BI / DW / Analytics</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39428231/apply/linkout?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39428231/apply/linkout?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Clinical Trials Coordinator</t>
@@ -1366,7 +1369,7 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39626523/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39626523/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>SENIOR ENVIRONMENTAL SCIENTIST/CONSULTANT</t>
@@ -1378,13 +1381,13 @@
     <t>Part Time</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39547350/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39547350/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Head of Marketing - Demand Generation Guru!</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39463354/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39463354/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Chemical Scientist - Graduate Role</t>
@@ -1393,7 +1396,7 @@
     <t>Memjet North Ryde Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39460077/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39460077/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Research Scientist, 3D Cell Culture</t>
@@ -1405,7 +1408,7 @@
     <t>2019-07-14</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39468125/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39468125/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Senior Environmental Scientist - Contaminated Land and Remediation</t>
@@ -1414,7 +1417,7 @@
     <t>AECOM Australia PTY LTD</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39441039/apply/linkout?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39441039/apply/linkout?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Environmental Consultant, Air Quality</t>
@@ -1426,7 +1429,7 @@
     <t>2.3</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39588827/apply/linkout?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39588827/apply/linkout?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Support Lead - Up to $100K Package - Leading IoT Agritech.</t>
@@ -1435,7 +1438,7 @@
     <t>Hyre.</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39582756/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39582756/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>BIOLOGICAL PRODUCT MANAGER</t>
@@ -1444,7 +1447,7 @@
     <t>Bioproperties Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39616641/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39616641/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Medical Science Liaison Oncology</t>
@@ -1453,7 +1456,7 @@
     <t>Bayer Australia Limited</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39471877/apply/linkout?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39471877/apply/linkout?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Environmental Engineer - Contaminated Land</t>
@@ -1462,7 +1465,7 @@
     <t>Aspect Personnel</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39607712/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39607712/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Research Assistant - Bone Biology</t>
@@ -1471,7 +1474,7 @@
     <t>Garvan Institute of Medical Research</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39533992/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39533992/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>CSIRO Postdoc Fellowship-Bioinformatics for Immuno-Engineering</t>
@@ -1480,10 +1483,10 @@
     <t>CSIRO</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39627971/apply/linkout?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39627972/apply/linkout?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39627971/apply/linkout?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39627972/apply/linkout?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Pharmacy Administration/Dispensary Technician</t>
@@ -1492,7 +1495,7 @@
     <t>NUGen Pharmacy</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39579928/apply?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
+    <t>https://www.seek.com.au//job/39579928/apply?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
   </si>
   <si>
     <t>Commercial Technical Consultant</t>
@@ -1504,10 +1507,10 @@
     <t>Southern Suburbs &amp; Sutherland Shire</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39648289/apply/linkout?searchrequesttoken=a17cdb8b-090e-4266-b6dc-672102521ca5</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39648290/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39648289/apply/linkout?searchrequesttoken=af0058c9-5d8b-4739-a7f3-2a7b46312022</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39648290/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Junior Systems Administrator and Data Analyst</t>
@@ -1516,7 +1519,7 @@
     <t>Niche Environment and Heritage</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39450874/apply?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39450874/apply?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Quality Manager</t>
@@ -1528,13 +1531,13 @@
     <t>4.4</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39649044/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39649044/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Medical Laboratory Assistant - General</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39616936/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39616936/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Animal House / Histology Technician</t>
@@ -1543,28 +1546,28 @@
     <t>Science People Pty Ltd</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39585014/apply?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39585014/apply?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Biologist – in vitro and ex vivo molecular techniques</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39609390/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39609391/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39609390/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39609391/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Legal Counsel</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39636120/apply?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39636120/apply?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Medical Laboratory Assistant – Pathology Collector</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39611532/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39611532/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Transport Planner - Sydney</t>
@@ -1573,7 +1576,7 @@
     <t>WSP Australia Pty Limited</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39635587/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39635587/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Speech Pathologist NATIONAL ACOUSTIC LABORATORIES</t>
@@ -1582,34 +1585,34 @@
     <t>Hearing Australia</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39604273/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39604274/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39571825/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39604273/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39604274/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39571825/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Computer Systems Engineer</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39484316/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
-  </si>
-  <si>
-    <t>https://www.seek.com.au//job/39484317/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39484316/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
+  </si>
+  <si>
+    <t>https://www.seek.com.au//job/39484317/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Senior Transport Modeller - Sydney</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39591594/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39591594/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Senior Signalling Engineer - Sydney</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39614544/apply/linkout?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39614544/apply/linkout?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Admin and Office Assistant</t>
@@ -1618,7 +1621,7 @@
     <t>HACCP Australia</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39449409/apply?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39449409/apply?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Graduate OHS and Environmental Officer</t>
@@ -1627,19 +1630,19 @@
     <t>GETEX PTY LTD</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39485276/apply?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39485276/apply?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Senior Hazardous Materials Consultant</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39485268/apply?searchrequesttoken=58729a6d-c7aa-4d3a-aaae-b6c2a314f43e</t>
+    <t>https://www.seek.com.au//job/39485268/apply?searchrequesttoken=67347c06-1f10-4d97-9fcc-d75b4de33dc9</t>
   </si>
   <si>
     <t>Technical Service Desk Support Specialist</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/39443182/apply?searchrequesttoken=bc06a2ec-15b6-46d4-bd25-f4b9507b2cce</t>
+    <t>https://www.seek.com.au//job/39443182/apply?searchrequesttoken=7b5cc896-d175-4817-ade2-0c179ce58a55</t>
   </si>
   <si>
     <t>Senior Ecologist</t>
@@ -1648,7 +1651,7 @@
     <t>2019-07-07</t>
   </si>
   <si>
-    <t>https://www.seek.com.au//job/37940858/apply?searchrequesttoken=bc06a2ec-15b6-46d4-bd25-f4b9507b2cce</t>
+    <t>https://www.seek.com.au//job/37940858/apply?searchrequesttoken=7b5cc896-d175-4817-ade2-0c179ce58a55</t>
   </si>
 </sst>
 </file>
@@ -2052,45 +2055,48 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2099,35 +2105,38 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -2136,167 +2145,173 @@
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -2305,98 +2320,98 @@
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -2405,104 +2420,104 @@
         <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -2511,95 +2526,98 @@
         <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -2608,161 +2626,170 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -2771,18 +2798,18 @@
         <v>11</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -2791,35 +2818,38 @@
         <v>11</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -2828,833 +2858,863 @@
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -3663,178 +3723,184 @@
         <v>11</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -3843,18 +3909,18 @@
         <v>11</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -3863,58 +3929,58 @@
         <v>11</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
@@ -3923,359 +3989,365 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F95" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F99" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B102" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D102" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D106" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B109" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B111" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C111" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D111" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
@@ -4284,387 +4356,396 @@
         <v>11</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C113" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B114" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B115" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D116" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B117" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F117" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D118" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C119" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B120" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D120" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C121" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C123" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B125" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B126" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C126" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F126" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B127" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C127" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B128" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C128" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B129" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C129" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F129" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B131" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
@@ -4673,18 +4754,18 @@
         <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B132" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
@@ -4693,18 +4774,18 @@
         <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B133" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
@@ -4713,18 +4794,18 @@
         <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B134" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -4733,18 +4814,18 @@
         <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B135" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
@@ -4753,18 +4834,18 @@
         <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B136" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
@@ -4773,41 +4854,41 @@
         <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B137" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F137" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B138" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
@@ -4816,310 +4897,322 @@
         <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F138" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B139" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F139" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B141" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B142" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B143" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B144" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
       </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
       <c r="E144" t="s">
         <v>11</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B145" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B146" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C146" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B147" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B149" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C149" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C150" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C151" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5130,7 +5223,7 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -5139,318 +5232,333 @@
         <v>11</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B155" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B156" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B157" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B158" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C158" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B160" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B161" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C161" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B162" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C162" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B163" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C163" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B164" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B165" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B166" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C166" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B167" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C167" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B168" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
         <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B169" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D169" t="s">
         <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F169" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B170" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C170" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D170" t="s">
         <v>10</v>
@@ -5459,78 +5567,78 @@
         <v>11</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B171" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C171" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D171" t="s">
         <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B172" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D172" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E172" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B173" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C173" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B174" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C174" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D174" t="s">
         <v>10</v>
@@ -5539,61 +5647,61 @@
         <v>11</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B175" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C175" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D175" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E175" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F175" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C176" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B177" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C177" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D177" t="s">
         <v>10</v>
@@ -5602,38 +5710,38 @@
         <v>11</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D178" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E178" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B179" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C179" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D179" t="s">
         <v>10</v>
@@ -5642,84 +5750,84 @@
         <v>11</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B180" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C180" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D180" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E180" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B181" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C181" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D181" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E181" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B182" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C182" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D182" t="s">
         <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B183" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C183" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D183" t="s">
         <v>10</v>
@@ -5728,81 +5836,84 @@
         <v>11</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B184" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C184" t="s">
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B185" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C185" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F185" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B186" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C186" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
       </c>
       <c r="E186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B187" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C187" t="s">
         <v>15</v>
@@ -5811,233 +5922,233 @@
         <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F187" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B188" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C188" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D188" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E188" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D189" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B190" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C190" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E190" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B191" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C191" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B192" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C192" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D192" t="s">
         <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F192" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B193" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C193" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F193" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B194" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C194" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D194" t="s">
         <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B195" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C195" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D195" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E195" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B196" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C196" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D196" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E196" t="s">
         <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B197" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D197" t="s">
         <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B198" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C198" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D198" t="s">
         <v>10</v>
@@ -6046,141 +6157,150 @@
         <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B199" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C199" t="s">
         <v>15</v>
       </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
       <c r="E199" t="s">
         <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B200" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C200" t="s">
         <v>15</v>
       </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
       <c r="E200" t="s">
         <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B201" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
       </c>
       <c r="E201" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B202" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E202" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F202" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B203" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E203" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F203" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B204" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C204" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D204" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E204" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B205" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -6189,110 +6309,110 @@
         <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F205" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B206" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C206" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D206" t="s">
         <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B207" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C207" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D207" t="s">
         <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B208" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D208" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E208" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F208" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B209" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D209" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E209" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F209" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B210" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C210" t="s">
         <v>15</v>
@@ -6301,41 +6421,44 @@
         <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F210" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B211" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D211" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E211" t="s">
-        <v>453</v>
+        <v>454</v>
+      </c>
+      <c r="F211" t="s">
+        <v>22</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B212" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C212" t="s">
         <v>15</v>
@@ -6344,268 +6467,277 @@
         <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F212" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B213" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C213" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D213" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E213" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F213" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B214" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C214" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D214" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F214" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B215" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D215" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E215" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F215" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B216" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C216" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D216" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E216" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F216" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B217" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C217" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D217" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E217" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F217" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B218" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D218" t="s">
         <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F218" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B219" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C219" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D219" t="s">
         <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F219" t="s">
+        <v>22</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B220" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C220" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D220" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E220" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B221" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C221" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="D221" t="s">
+        <v>16</v>
       </c>
       <c r="E221" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B222" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C222" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="D222" t="s">
+        <v>16</v>
       </c>
       <c r="E222" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B223" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C223" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D223" t="s">
         <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F223" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B224" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C224" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D224" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E224" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
